--- a/man/tables/ae_detail_EXAMPLE_STUDY_Cohort_D_30OCT2020.xlsx
+++ b/man/tables/ae_detail_EXAMPLE_STUDY_Cohort_D_30OCT2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -23,13 +23,13 @@
     <t xml:space="preserve"># of subjects that have experienced the AE</t>
   </si>
   <si>
-    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=6)</t>
   </si>
   <si>
     <t xml:space="preserve"># of subjects that experienced the event at a grade 3 to 5</t>
   </si>
   <si>
-    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=6)</t>
   </si>
   <si>
     <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
@@ -38,12 +38,12 @@
     <t xml:space="preserve">ANEMIA</t>
   </si>
   <si>
-    <t xml:space="preserve">66.67</t>
-  </si>
-  <si>
     <t xml:space="preserve">33.33</t>
   </si>
   <si>
+    <t xml:space="preserve">16.67</t>
+  </si>
+  <si>
     <t xml:space="preserve">FEBRILE NEUTROPENIA</t>
   </si>
   <si>
@@ -140,22 +140,16 @@
     <t xml:space="preserve">ALANINE AMINOTRANSFERASE INCREASED</t>
   </si>
   <si>
-    <t xml:space="preserve"> 66.67</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALKALINE PHOSPHATASE INCREASED</t>
   </si>
   <si>
-    <t xml:space="preserve"> 33.33</t>
-  </si>
-  <si>
     <t xml:space="preserve">ASPARTATE AMINOTRANSFERASE INCREASED</t>
   </si>
   <si>
     <t xml:space="preserve">BLOOD BILIRUBIN INCREASED</t>
   </si>
   <si>
-    <t xml:space="preserve">100.00</t>
+    <t xml:space="preserve">50.00</t>
   </si>
   <si>
     <t xml:space="preserve">ELECTROCARDIOGRAM QT CORRECTED INTERVAL PROLONGED</t>
@@ -770,22 +764,22 @@
   <sheetData>
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" ht="82" customHeight="1">
@@ -1299,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E34" s="3" t="n">
         <v>0</v>
@@ -1313,13 +1307,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E35" s="3" t="n">
         <v>0</v>
@@ -1333,13 +1327,13 @@
         <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>0</v>
@@ -1353,13 +1347,13 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>3</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>2</v>
@@ -1373,13 +1367,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E38" s="3" t="n">
         <v>1</v>
@@ -1393,13 +1387,13 @@
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E39" s="3" t="n">
         <v>2</v>
@@ -1413,13 +1407,13 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E40" s="3" t="n">
         <v>1</v>
@@ -1430,10 +1424,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>2</v>
@@ -1450,10 +1444,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>1</v>
@@ -1470,10 +1464,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>1</v>
@@ -1490,10 +1484,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>1</v>
@@ -1510,10 +1504,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>2</v>
@@ -1530,10 +1524,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>1</v>
@@ -1550,10 +1544,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>1</v>
@@ -1570,10 +1564,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>1</v>
@@ -1590,10 +1584,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>1</v>
@@ -1610,10 +1604,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>1</v>
@@ -1630,10 +1624,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>1</v>
@@ -1650,10 +1644,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>1</v>
@@ -1670,10 +1664,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>2</v>
@@ -1690,10 +1684,10 @@
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="10" t="n">
         <v>1</v>

--- a/man/tables/ae_detail_EXAMPLE_STUDY_Cohort_D_30OCT2020.xlsx
+++ b/man/tables/ae_detail_EXAMPLE_STUDY_Cohort_D_30OCT2020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -23,13 +23,13 @@
     <t xml:space="preserve"># of subjects that have experienced the AE</t>
   </si>
   <si>
-    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=6)</t>
+    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=3)</t>
   </si>
   <si>
     <t xml:space="preserve"># of subjects that experienced the event at a grade 3 to 5</t>
   </si>
   <si>
-    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=6)</t>
+    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
   </si>
   <si>
     <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
@@ -38,12 +38,12 @@
     <t xml:space="preserve">ANEMIA</t>
   </si>
   <si>
+    <t xml:space="preserve">66.67</t>
+  </si>
+  <si>
     <t xml:space="preserve">33.33</t>
   </si>
   <si>
-    <t xml:space="preserve">16.67</t>
-  </si>
-  <si>
     <t xml:space="preserve">FEBRILE NEUTROPENIA</t>
   </si>
   <si>
@@ -140,16 +140,22 @@
     <t xml:space="preserve">ALANINE AMINOTRANSFERASE INCREASED</t>
   </si>
   <si>
+    <t xml:space="preserve"> 66.67</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALKALINE PHOSPHATASE INCREASED</t>
   </si>
   <si>
+    <t xml:space="preserve"> 33.33</t>
+  </si>
+  <si>
     <t xml:space="preserve">ASPARTATE AMINOTRANSFERASE INCREASED</t>
   </si>
   <si>
     <t xml:space="preserve">BLOOD BILIRUBIN INCREASED</t>
   </si>
   <si>
-    <t xml:space="preserve">50.00</t>
+    <t xml:space="preserve">100.00</t>
   </si>
   <si>
     <t xml:space="preserve">ELECTROCARDIOGRAM QT CORRECTED INTERVAL PROLONGED</t>
@@ -764,22 +770,22 @@
   <sheetData>
     <row r="1" ht="50" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="82" customHeight="1">
@@ -1293,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E34" s="3" t="n">
         <v>0</v>
@@ -1307,13 +1313,13 @@
         <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E35" s="3" t="n">
         <v>0</v>
@@ -1327,13 +1333,13 @@
         <v>40</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E36" s="3" t="n">
         <v>0</v>
@@ -1347,13 +1353,13 @@
         <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>3</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E37" s="3" t="n">
         <v>2</v>
@@ -1367,13 +1373,13 @@
         <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E38" s="3" t="n">
         <v>1</v>
@@ -1387,13 +1393,13 @@
         <v>40</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E39" s="3" t="n">
         <v>2</v>
@@ -1407,13 +1413,13 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E40" s="3" t="n">
         <v>1</v>
@@ -1424,10 +1430,10 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>2</v>
@@ -1444,10 +1450,10 @@
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>1</v>
@@ -1464,10 +1470,10 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>1</v>
@@ -1484,10 +1490,10 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>1</v>
@@ -1504,10 +1510,10 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>2</v>
@@ -1524,10 +1530,10 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>1</v>
@@ -1544,10 +1550,10 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>1</v>
@@ -1564,10 +1570,10 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>1</v>
@@ -1584,10 +1590,10 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>1</v>
@@ -1604,10 +1610,10 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>1</v>
@@ -1624,10 +1630,10 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>1</v>
@@ -1644,10 +1650,10 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>1</v>
@@ -1664,10 +1670,10 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>2</v>
@@ -1684,10 +1690,10 @@
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C54" s="10" t="n">
         <v>1</v>
